--- a/data/download_SH515080.xlsx
+++ b/data/download_SH515080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1217"/>
+  <dimension ref="A1:F1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="C1217" t="n">
-        <v>1.561</v>
+        <v>1.53</v>
       </c>
       <c r="D1217" t="n">
         <v>1.563</v>
@@ -29646,7 +29646,367 @@
         <v>1.569</v>
       </c>
       <c r="F1217" t="n">
-        <v>1.554</v>
+        <v>1.521</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>20250103</t>
+        </is>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1218" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.515</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>20250106</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1219" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.507</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>20250107</t>
+        </is>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1220" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.505</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>20250108</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1221" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.498</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>20250109</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1222" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.493</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>20250110</t>
+        </is>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1223" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.472</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>20250113</t>
+        </is>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1224" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.455</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>20250114</t>
+        </is>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1225" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>20250115</t>
+        </is>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1226" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.482</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>20250116</t>
+        </is>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>20250117</t>
+        </is>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1228" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.487</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>20250120</t>
+        </is>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1229" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.491</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>20250121</t>
+        </is>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1230" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.481</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>20250122</t>
+        </is>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1231" t="n">
+        <v>1.469</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.465</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>20250123</t>
+        </is>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1232" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>1.481</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.478</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH515080.xlsx
+++ b/data/download_SH515080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1232"/>
+  <dimension ref="A1:F1247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30009,6 +30009,366 @@
         <v>1.478</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1233" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.481</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>20250127</t>
+        </is>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1234" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>20250205</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1235" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.483</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>20250206</t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1236" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.477</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.481</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>20250210</t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1238" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>20250211</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.495</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>20250212</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>20250213</t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1241" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.498</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1242" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>1.496</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>20250217</t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1243" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>1.493</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>20250218</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1244" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>20250219</t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1245" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>20250220</t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1246" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>1.482</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1247" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>1.472</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515080.xlsx
+++ b/data/download_SH515080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1247"/>
+  <dimension ref="A1:F1248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30369,6 +30369,30 @@
         <v>1.472</v>
       </c>
     </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1248" t="n">
+        <v>1.477</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515080.xlsx
+++ b/data/download_SH515080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1248"/>
+  <dimension ref="A1:F1252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30393,6 +30393,102 @@
         <v>1.47</v>
       </c>
     </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1249" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>1.475</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>1.477</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>1.465</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1250" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>1.466</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>1.466</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1251" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1252" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>1.495</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515080.xlsx
+++ b/data/download_SH515080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1252"/>
+  <dimension ref="A1:F1253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30477,7 +30477,7 @@
         </is>
       </c>
       <c r="C1252" t="n">
-        <v>1.497</v>
+        <v>1.491</v>
       </c>
       <c r="D1252" t="n">
         <v>1.502</v>
@@ -30486,7 +30486,31 @@
         <v>1.507</v>
       </c>
       <c r="F1252" t="n">
-        <v>1.495</v>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1253" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>1.491</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH515080.xlsx
+++ b/data/download_SH515080.xlsx
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="C1253" t="n">
-        <v>1.494</v>
+        <v>1.488</v>
       </c>
       <c r="D1253" t="n">
         <v>1.491</v>
@@ -30510,7 +30510,7 @@
         <v>1.497</v>
       </c>
       <c r="F1253" t="n">
-        <v>1.49</v>
+        <v>1.485</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH515080.xlsx
+++ b/data/download_SH515080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1289"/>
+  <dimension ref="A1:F1291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31377,6 +31377,54 @@
         <v>1.492</v>
       </c>
     </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1290" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1291" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>1.497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH515080.xlsx
+++ b/data/download_SH515080.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1291"/>
+  <dimension ref="A1:F1296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31425,6 +31425,126 @@
         <v>1.497</v>
       </c>
     </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>1.495</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1293" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1294" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1295" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>1.491</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>1.482</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>SH515080</t>
+        </is>
+      </c>
+      <c r="C1296" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>1.494</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
